--- a/biology/Botanique/Potalia_amara/Potalia_amara.xlsx
+++ b/biology/Botanique/Potalia_amara/Potalia_amara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Potalia amara est une espèce d'arbuste néotropical, appartenant à la famille des Gentianaceae (anciennement Loganiaceae). Il s'agit de l'espèce type du genre Potalia Aubl..
-En Guyane, elle est connue sous les noms de Mavévé grand bois, Matévé, Grand Matévé[3] (créole)[4], Anɨlapoy (Wayãpi), Aβatni awak nopsisa (Palikur), Anabi, Pau-de-cobra (Portugais)[5], Tsaantsutsu (Aluku)[6], bokokini (Taki taki)[7].
+En Guyane, elle est connue sous les noms de Mavévé grand bois, Matévé, Grand Matévé (créole), Anɨlapoy (Wayãpi), Aβatni awak nopsisa (Palikur), Anabi, Pau-de-cobra (Portugais), Tsaantsutsu (Aluku), bokokini (Taki taki).
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Potalia amara est un arbre ou un arbuste du sous-étage atteignant 1-2(-5) m de haut, monopodial ou peu ramifié. Les tiges et branches cylindriques, glabres, mesurent jusqu'à 5 cm de diamètre. Les entre-nœuds sont longs de 1,5 à 24 cm.
 Les feuilles pétiolées, opposées décussées, sont groupées vers l'apex des branches. 
@@ -534,7 +548,7 @@
 Le style renflé à la base, filiforme à l'apex, est long de 2-3 mm, porte un stigmate capité d'environ 1 mm de diamètre.
 Le fruit dressé, est indéhiscent, vert à l'état immature ou frais (vert rougeâtre), devenant brun foncé en séchant, est de forme globuleuse ovoïde, mucroné à l'apex, à légèrement connée, mesure 11-15 x 10-15 mm.
 (la partie apicale stérile moins distincte et confluente avec un anneau épaissi moins distinct que chez P. resinifera), 
-Les nombreuses graines anguleuses sont brun foncé, et mesurent environ 4 × 2 mm[7],[4],[8].
+Les nombreuses graines anguleuses sont brun foncé, et mesurent environ 4 × 2 mm.
 </t>
         </is>
       </c>
@@ -563,9 +577,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Potalia a fait l'objet d'une révision taxonomique en 2004[9], à l'occasion de laquelle il a été divisé en 9 taxons, dont certains étaient auparavant considérés comme Potalia amara. Le taxon le plus proche de Potalia amara serait Potalia turbinata Struwe &amp; V.A. Albert d'Amérique Centrale, qui a les fleurs et les fruits les plus similaires[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Potalia a fait l'objet d'une révision taxonomique en 2004, à l'occasion de laquelle il a été divisé en 9 taxons, dont certains étaient auparavant considérés comme Potalia amara. Le taxon le plus proche de Potalia amara serait Potalia turbinata Struwe &amp; V.A. Albert d'Amérique Centrale, qui a les fleurs et les fruits les plus similaires.
 </t>
         </is>
       </c>
@@ -594,10 +610,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potalia amara présente une aire de répartition restreinte aux Guyanes (Guyana, Suriname et Guyane) et à l'Amapá (Brésil)[7].
-On pensait sa répartition beaucoup plus vaste en Amérique du Sud jusqu'à la révision du genre en 2004[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potalia amara présente une aire de répartition restreinte aux Guyanes (Guyana, Suriname et Guyane) et à l'Amapá (Brésil).
+On pensait sa répartition beaucoup plus vaste en Amérique du Sud jusqu'à la révision du genre en 2004.
 </t>
         </is>
       </c>
@@ -626,10 +644,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potalia amara est un arbuste commun dans le sous-bois des forêts tropicales anciennes[5], principalement non inondées, mais aussi dans les forêts secondaires, le long des pistes et des sentiers, sur les berges des cours d'eau, souvent sur des sols latéritiques, autour de 70-700 m d'altitude. Elle fleurit et fructifie toute l'année[7].
-Ses fruits sont disséminés par des chauves-souris[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potalia amara est un arbuste commun dans le sous-bois des forêts tropicales anciennes, principalement non inondées, mais aussi dans les forêts secondaires, le long des pistes et des sentiers, sur les berges des cours d'eau, souvent sur des sols latéritiques, autour de 70-700 m d'altitude. Elle fleurit et fructifie toute l'année.
+Ses fruits sont disséminés par des chauves-souris.
 </t>
         </is>
       </c>
@@ -658,19 +678,21 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1897, le Dr Heckel signale que les gouttelettes de résine transparente jaunâtre produites par les feuilles et jeunes tiges de Potalia amara, émettent en brûlant une odeur rappelant le benjoin. Il signale aussi qu'on fait de cette plante très franchement amère, une tisane sudorifique contre les maladies vénériennes, un vomitif employé en cas d'empoisonnement par le manioc (Aublet), et qu'elle a des vertus emménagogues, antisyphilitiques, antispasmodiques, fébrifuges, et antiictériques[10],[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1897, le Dr Heckel signale que les gouttelettes de résine transparente jaunâtre produites par les feuilles et jeunes tiges de Potalia amara, émettent en brûlant une odeur rappelant le benjoin. Il signale aussi qu'on fait de cette plante très franchement amère, une tisane sudorifique contre les maladies vénériennes, un vomitif employé en cas d'empoisonnement par le manioc (Aublet), et qu'elle a des vertus emménagogues, antisyphilitiques, antispasmodiques, fébrifuges, et antiictériques,.
 Potalia amara est une plante typique des pharmacopées amazoniennes.
 La décoction des parties aériennes de Potalia amara est considérée comme fébrifuge par les Créoles (bue) et les Wayãpi (administrée en bain).
-Les Palikur mettent à exsuder à la flamme les jeunes feuilles, et rameaux écrasés de Potalia amara, puis les imbibent d'huile de carapa, avant de les appliquer en cataplasme sur les zones douloureuses, pour soigner les abcès profonds (tukuke) et les enflures causées par du pus (wahau). Potalia amara est associée à Picrolemma sprucei, Gossypium barbadense et Tabebuia serratifolia dans un traitement Palikur contre le diabète[5].
+Les Palikur mettent à exsuder à la flamme les jeunes feuilles, et rameaux écrasés de Potalia amara, puis les imbibent d'huile de carapa, avant de les appliquer en cataplasme sur les zones douloureuses, pour soigner les abcès profonds (tukuke) et les enflures causées par du pus (wahau). Potalia amara est associée à Picrolemma sprucei, Gossypium barbadense et Tabebuia serratifolia dans un traitement Palikur contre le diabète.
 Potalia amara aurait aussi des vertus pour soigner
-les urétrites [11],
-la syphilis au Brésil[12]
-et dans les Guyanes[13],
-les intoxinations au Manioc (antidote de la manihotoxine)[14],
-les envinimations (feuilles alexitère en Amazonie chez les Tukano, les Maku et les Bora)[15]
-et les conjonctivites (à petite dose)[16].
+les urétrites ,
+la syphilis au Brésil
+et dans les Guyanes,
+les intoxinations au Manioc (antidote de la manihotoxine),
+les envinimations (feuilles alexitère en Amazonie chez les Tukano, les Maku et les Bora)
+et les conjonctivites (à petite dose).
 </t>
         </is>
       </c>
@@ -699,9 +721,11 @@
           <t>Chimie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Potalia amara contient des swertiamarine (iridoïde)[5].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Potalia amara contient des swertiamarine (iridoïde).
 </t>
         </is>
       </c>
@@ -730,9 +754,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « POTALIA amara. (Tabula 151.)
 Plantæ caulis perennis, ſimplex, pedalis, bi-pedalis vel tri-pedalis, nodoſus. Folia tantùm ad duo vel tres nodos ſuperiores oppoſita, longiſſima, ovato-acuminata, glabra, luteo virentia, integerrima, ad baſim anguſtiora, petiolata, vaginæ breviſſimæ, amplexi-cauli adnexa. Flores corymboſi, terminales : pedunculus communis, &amp; particulares oppoſiti, è vaginâ breviſſimâ prodeunr, ſingulus flos, è ſinu duarum squamularum exit. Perianthium luteum. Corolla alba. Antheræ virentes. Capsula flaveſcens, ceraſi-formis, ſex-ſtriata. 
 Sæpiùs ad axillas foliorum, spercaulem ſparſa, obſervantur granula reſinoſa, flava, tranſlucida, quæ incenſa odorem benzoini exhalant. 
